--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +822,7 @@
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -16,46 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
-  <si>
-    <t>Id(int,PK)</t>
-  </si>
-  <si>
-    <t>UserId(int,UK)</t>
-  </si>
-  <si>
-    <t>Ttile(Alpha)</t>
-  </si>
-  <si>
-    <t>FullName(Apha)</t>
-  </si>
-  <si>
-    <t>Email(alphaNum)</t>
-  </si>
-  <si>
-    <t>Mobile(int)</t>
-  </si>
-  <si>
-    <t>PanCard(alphaNum)</t>
-  </si>
-  <si>
-    <t>Aadhar(int)</t>
-  </si>
-  <si>
-    <t>uploadAdress(AlphaNum)</t>
-  </si>
-  <si>
-    <t>DOB(date)</t>
-  </si>
-  <si>
-    <t>Id(int ,pk)</t>
-  </si>
-  <si>
-    <t>UserId(int ,Fk)</t>
-  </si>
-  <si>
-    <t>init balance(int)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>USER Table</t>
   </si>
@@ -87,12 +48,6 @@
     <t>address of the image</t>
   </si>
   <si>
-    <t>Id(int,pk)</t>
-  </si>
-  <si>
-    <t>UserName(alphaNum)</t>
-  </si>
-  <si>
     <t>password(hash)</t>
   </si>
   <si>
@@ -102,63 +57,21 @@
     <t>skdjvnkdjfnvkjsnv213417</t>
   </si>
   <si>
-    <t>AccountNum(int,Uk) 6 digit</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>Transaction Table(statement)</t>
   </si>
   <si>
     <t>Account Approval Table</t>
   </si>
   <si>
-    <t>ApplicationId(Fk)</t>
-  </si>
-  <si>
-    <t>Status(Alpha)</t>
-  </si>
-  <si>
-    <t>AdminId(FK)</t>
-  </si>
-  <si>
-    <t>Id(int ,PK)</t>
-  </si>
-  <si>
-    <t>AccountNum(FK)</t>
-  </si>
-  <si>
-    <t>Type(Apha)</t>
-  </si>
-  <si>
-    <t>Amount(aplhaNum)</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
     <t>"20012022151011"</t>
   </si>
   <si>
-    <t>ApplicationId(TS,BigInt)Uk</t>
-  </si>
-  <si>
-    <t>TimeStamp(bigInt)</t>
-  </si>
-  <si>
     <t>"20012022151311"</t>
   </si>
   <si>
-    <t>Id(int ,Pk)</t>
-  </si>
-  <si>
-    <t>ShortName(Alpha)</t>
-  </si>
-  <si>
-    <t>PayeeAccounNum(int)</t>
-  </si>
-  <si>
     <t>Falil</t>
   </si>
   <si>
@@ -168,15 +81,6 @@
     <t>Bharti</t>
   </si>
   <si>
-    <t>Id(int ,pK)</t>
-  </si>
-  <si>
-    <t>BilllerName(AlphaNum)</t>
-  </si>
-  <si>
-    <t>BillerAcctNum(int ,UK)</t>
-  </si>
-  <si>
     <t>Airtel</t>
   </si>
   <si>
@@ -189,33 +93,12 @@
     <t>Biller Registered Table</t>
   </si>
   <si>
-    <t>Id(int,Pk)</t>
-  </si>
-  <si>
-    <t>AccountNum(int,Fk)</t>
-  </si>
-  <si>
-    <t>ConsumerNum(int ,Uk)</t>
-  </si>
-  <si>
     <t>Biller Provider Table(At the bank levek)</t>
   </si>
   <si>
-    <t>TransactionId(int,UK)</t>
-  </si>
-  <si>
-    <t>BillerproviderId(int,FK)</t>
-  </si>
-  <si>
     <t>User Authentication Table</t>
   </si>
   <si>
-    <t>Email(AlphaNum)</t>
-  </si>
-  <si>
-    <t>Password(alphaNum,hash)</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -225,14 +108,119 @@
     <t>Admin Authentication  Table</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t>id(int,PK)</t>
+  </si>
+  <si>
+    <t>user_id(int,UK)</t>
+  </si>
+  <si>
+    <t>application_id(TS,BigInt)Uk</t>
+  </si>
+  <si>
+    <t>title(Alpha)</t>
+  </si>
+  <si>
+    <t>full_name(Apha)</t>
+  </si>
+  <si>
+    <t>dob(date)</t>
+  </si>
+  <si>
+    <t>email(alphaNum)</t>
+  </si>
+  <si>
+    <t>mobile(int)</t>
+  </si>
+  <si>
+    <t>pan_card(alphaNum)</t>
+  </si>
+  <si>
+    <t>aadhar(int)</t>
+  </si>
+  <si>
+    <t>upload_adress(AlphaNum)</t>
+  </si>
+  <si>
+    <t>init_balance(int)</t>
+  </si>
+  <si>
+    <t>id(int ,pk)</t>
+  </si>
+  <si>
+    <t>timestamp(bigInt)</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>user_id(int ,Fk)</t>
+  </si>
+  <si>
+    <t>account_number(int,Uk) 6 digit</t>
+  </si>
+  <si>
+    <t>email(AlphaNum)</t>
+  </si>
+  <si>
+    <t>password(alphaNum,hash)</t>
+  </si>
+  <si>
+    <t>account_number(int,FK) 6 digit</t>
+  </si>
+  <si>
+    <t>short_name(Alpha)</t>
+  </si>
+  <si>
+    <t>payee_accounNum(int)</t>
+  </si>
+  <si>
+    <t>consumer_num(int ,Uk)</t>
+  </si>
+  <si>
+    <t>biller_provider_id(int,FK)</t>
+  </si>
+  <si>
+    <t>id(int,Pk)</t>
+  </si>
+  <si>
+    <t>billler_name(AlphaNum)</t>
+  </si>
+  <si>
+    <t>biller_acct_num(int ,UK)</t>
+  </si>
+  <si>
+    <t>type(Apha)</t>
+  </si>
+  <si>
+    <t>amount(aplhaNum)</t>
+  </si>
+  <si>
+    <t>transaction_id(int,UK)</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>application_id(Fk)</t>
+  </si>
+  <si>
+    <t>status(Alpha)</t>
+  </si>
+  <si>
+    <t>admin_id(FK)</t>
+  </si>
+  <si>
+    <t>id(int,pk)</t>
+  </si>
+  <si>
+    <t>user_name(alphaNum)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +240,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,15 +592,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -612,14 +608,14 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.77734375" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -632,43 +628,43 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -679,42 +675,42 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <v>36358</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>9876543210</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>1001</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -729,19 +725,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -758,7 +754,7 @@
         <v>1001</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -775,7 +771,7 @@
         <v>5599</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -783,7 +779,7 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -810,17 +806,17 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>57</v>
+      <c r="A12" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -835,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>123456</v>
@@ -846,7 +842,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -860,20 +856,20 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -884,13 +880,13 @@
         <v>123456</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>654321</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -901,13 +897,13 @@
         <v>123456</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>1111111</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -918,13 +914,13 @@
         <v>654321</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -935,18 +931,18 @@
         <v>70080</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1111111</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -974,19 +970,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1003,7 +999,7 @@
         <v>98765</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1020,12 +1016,12 @@
         <v>65647</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1039,14 +1035,14 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>50</v>
+      <c r="A28" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1054,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>1907832</v>
@@ -1065,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>1890236</v>
@@ -1076,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>1092237</v>
@@ -1090,7 +1086,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1104,26 +1100,26 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+      <c r="A33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1134,7 +1130,7 @@
         <v>123456</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>1001</v>
@@ -1143,7 +1139,7 @@
         <v>99838447</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1156,7 +1152,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1183,20 +1179,20 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>23</v>
+      <c r="A38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1204,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1232,7 +1228,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1254,13 +1250,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1268,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -129,9 +129,6 @@
     <t>email(alphaNum)</t>
   </si>
   <si>
-    <t>mobile(int)</t>
-  </si>
-  <si>
     <t>pan_card(alphaNum)</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>user_name(alphaNum)</t>
+  </si>
+  <si>
+    <t>mobile_num(int)</t>
   </si>
 </sst>
 </file>
@@ -284,10 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.77734375" customWidth="1"/>
@@ -614,17 +614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -649,22 +649,22 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -709,35 +709,35 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -778,19 +778,19 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -807,16 +807,16 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -841,35 +841,35 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -941,19 +941,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -970,19 +970,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1020,29 +1020,29 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
+      <c r="A28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1085,41 +1085,41 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,19 +1151,19 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -1179,20 +1179,20 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1227,19 +1227,19 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
         <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -138,9 +138,6 @@
     <t>upload_adress(AlphaNum)</t>
   </si>
   <si>
-    <t>init_balance(int)</t>
-  </si>
-  <si>
     <t>id(int ,pk)</t>
   </si>
   <si>
@@ -213,7 +210,10 @@
     <t>user_name(alphaNum)</t>
   </si>
   <si>
-    <t>mobile_num(int)</t>
+    <t>mobile_number(int)</t>
+  </si>
+  <si>
+    <t>initial_balance(int)</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,11 +605,11 @@
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -649,7 +649,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
@@ -661,10 +661,10 @@
         <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -725,19 +725,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -807,16 +807,16 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -857,19 +857,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -970,19 +970,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1036,13 +1036,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1101,25 +1101,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>58</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1180,19 +1180,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1250,10 +1250,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
         <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>USER Table</t>
   </si>
@@ -72,9 +72,6 @@
     <t>"20012022151311"</t>
   </si>
   <si>
-    <t>Falil</t>
-  </si>
-  <si>
     <t>Ranjith</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>balance</t>
   </si>
   <si>
-    <t>user_id(int ,Fk)</t>
-  </si>
-  <si>
     <t>account_number(int,Uk) 6 digit</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>password(alphaNum,hash)</t>
   </si>
   <si>
-    <t>account_number(int,FK) 6 digit</t>
-  </si>
-  <si>
     <t>short_name(Alpha)</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>consumer_num(int ,Uk)</t>
   </si>
   <si>
-    <t>biller_provider_id(int,FK)</t>
-  </si>
-  <si>
     <t>id(int,Pk)</t>
   </si>
   <si>
@@ -195,15 +183,9 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>application_id(Fk)</t>
-  </si>
-  <si>
     <t>status(Alpha)</t>
   </si>
   <si>
-    <t>admin_id(FK)</t>
-  </si>
-  <si>
     <t>id(int,pk)</t>
   </si>
   <si>
@@ -214,6 +196,27 @@
   </si>
   <si>
     <t>initial_balance(int)</t>
+  </si>
+  <si>
+    <t>account_table(int,FK) 6 digit</t>
+  </si>
+  <si>
+    <t>biller_provider_table(int,FK)</t>
+  </si>
+  <si>
+    <t>account_Table(int,FK) 6 digit</t>
+  </si>
+  <si>
+    <t>admin_Table(FK)</t>
+  </si>
+  <si>
+    <t>user_table(Fk)</t>
+  </si>
+  <si>
+    <t>account_id(int,FK) 6 digit</t>
+  </si>
+  <si>
+    <t>user(int ,Fk)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,43 +631,43 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -725,19 +728,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -748,7 +751,7 @@
         <v>123456</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1001</v>
@@ -765,7 +768,7 @@
         <v>922356</v>
       </c>
       <c r="C8" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>5599</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -807,16 +810,16 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -834,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>123456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -857,19 +860,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -877,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>123456</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>654321</v>
@@ -894,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>123456</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1111111</v>
@@ -911,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>654321</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>123456</v>
@@ -923,26 +926,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>70080</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>1111111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -970,19 +956,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -993,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>123456</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>98765</v>
@@ -1010,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>922356</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
         <v>65647</v>
@@ -1021,7 +1007,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1036,13 +1022,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1050,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1907832</v>
@@ -1061,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>1890236</v>
@@ -1072,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>1092237</v>
@@ -1101,25 +1087,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1127,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>123456</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -1180,30 +1166,30 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
+      <c r="B39">
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1228,7 +1214,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1250,10 +1236,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -204,19 +204,19 @@
     <t>biller_provider_table(int,FK)</t>
   </si>
   <si>
-    <t>account_Table(int,FK) 6 digit</t>
-  </si>
-  <si>
     <t>admin_Table(FK)</t>
   </si>
   <si>
-    <t>user_table(Fk)</t>
-  </si>
-  <si>
     <t>account_id(int,FK) 6 digit</t>
   </si>
   <si>
     <t>user(int ,Fk)</t>
+  </si>
+  <si>
+    <t>account_number(int,FK) 6 digit</t>
+  </si>
+  <si>
+    <t>user(Fk)</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -863,7 +863,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -962,7 +962,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -1090,7 +1090,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
@@ -1169,13 +1169,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>40</v>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>USER Table</t>
   </si>
@@ -87,12 +87,6 @@
     <t>VI</t>
   </si>
   <si>
-    <t>Biller Registered Table</t>
-  </si>
-  <si>
-    <t>Biller Provider Table(At the bank levek)</t>
-  </si>
-  <si>
     <t>User Authentication Table</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>billler_name(AlphaNum)</t>
   </si>
   <si>
-    <t>biller_acct_num(int ,UK)</t>
-  </si>
-  <si>
     <t>type(Apha)</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>account_table(int,FK) 6 digit</t>
   </si>
   <si>
-    <t>biller_provider_table(int,FK)</t>
-  </si>
-  <si>
     <t>admin_Table(FK)</t>
   </si>
   <si>
@@ -213,10 +201,40 @@
     <t>user(int ,Fk)</t>
   </si>
   <si>
-    <t>account_number(int,FK) 6 digit</t>
-  </si>
-  <si>
     <t>user(Fk)</t>
+  </si>
+  <si>
+    <t>Biller Register Table(At the bank levek)</t>
+  </si>
+  <si>
+    <t>Biller Provider Table</t>
+  </si>
+  <si>
+    <t>initial payment</t>
+  </si>
+  <si>
+    <t>bill_number(int,UQ)</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>transaction_Id(FK)</t>
+  </si>
+  <si>
+    <t>biller_register_table(int,FK)</t>
+  </si>
+  <si>
+    <t>SpectraNet</t>
+  </si>
+  <si>
+    <t>bill_regisster_id(FK)</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>Payment Bills Table</t>
   </si>
 </sst>
 </file>
@@ -276,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +306,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +627,7 @@
     <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -617,57 +638,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -712,35 +733,35 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -781,19 +802,19 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -810,16 +831,16 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -837,42 +858,42 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -927,19 +948,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -956,19 +977,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1006,29 +1027,26 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1037,9 +1055,6 @@
       </c>
       <c r="B29" t="s">
         <v>20</v>
-      </c>
-      <c r="C29">
-        <v>1907832</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1049,9 +1064,6 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C30">
-        <v>1890236</v>
-      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1059,9 +1071,6 @@
       </c>
       <c r="B31" t="s">
         <v>22</v>
-      </c>
-      <c r="C31">
-        <v>1092237</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1071,13 +1080,12 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1086,65 +1094,89 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
       <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>1001</v>
-      </c>
-      <c r="E34">
-        <v>99838447</v>
-      </c>
-      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>11111</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>123456</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>22222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>123456</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -1152,121 +1184,213 @@
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>1001</v>
+      </c>
+      <c r="E40">
+        <v>99838447</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C50" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A41:K41"/>
+  <mergeCells count="10">
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A47:K47"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A33:K33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>

--- a/Project Documents/DbInfo.xlsx
+++ b/Project Documents/DbInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>USER Table</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>id(alpha ,pk)uuid</t>
-  </si>
-  <si>
-    <t>dnefnnfcowen</t>
   </si>
   <si>
     <t>pan_card(blob)</t>
@@ -667,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,11 +774,11 @@
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>75</v>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4">
         <v>1001</v>
@@ -814,29 +811,29 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -847,7 +844,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -862,32 +859,32 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
